--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2014 (J14).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2014 (J14).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,462 +444,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>|Ducg,norn gSeDZaOnobt.</t>
+          <t>('|Ducg,norn gSeDZaOnobt.', ['{5}{W}{W}', '|MewkfuDs psewtr.', '|zvEpnrYhm. |su,Lecc,CF,CsYPYcs,usFPuuDs2\\2MEtepuC.', '|su,CF,FsnUUCA,CsYPuc,suPuuDs3\\3MEtepuC.', '4/7'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{W}{W}</t>
+          <t>('Force of Will', ['{3}{U}{U}', 'Instant', 'You may pay 1 life and exile a blue card from your hand rather than pay this spell’s mana cost.', 'Counter target spell.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>|MewkfuDs psewtr.</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>|zvEpnrYhm. |su,Lecc,CF,CsYPYcs,usFPuuDs2\2MEtepuC.</t>
+          <t>('Greater Good', ['{2}{G}{G}', 'Enchantment', 'Sacrifice a creature: Draw cards equal to the sacrificed creature’s power, then discard three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>|su,CF,FsnUUCA,CsYPuc,suPuuDs3\3MEtepuC.</t>
+          <t>("Hanna, Ship's Navigator", ['{1}{W}{U}', 'Legendary Creature — Human Artificer', '{1}{W}{U}, {T}: Return target artifact or enchantment card from your graveyard to your hand.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/7</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Force of Will</t>
+          <t>('Karador, Ghost Chieftain', ['{5}{W}{B}{G}', 'Legendary Creature — Centaur Spirit', 'This spell costs {1} less to cast for each creature card in your graveyard.', 'During each of your turns, you may cast a creature spell from your graveyard.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{3}{U}{U}</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Nekusar, the Mindrazer', ['{2}{U}{B}{R}', 'Legendary Creature — Zombie Wizard', 'At the beginning of each player’s draw step, that player draws an additional card.', 'Whenever an opponent draws a card, Nekusar, the Mindrazer deals 1 damage to that player.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>You may pay 1 life and exile a blue card from your hand rather than pay this spell’s mana cost.</t>
+          <t>('Oloro, Ageless Ascetic', ['{3}{W}{U}{B}', 'Legendary Creature — Giant Soldier', 'At the beginning of your upkeep, you gain 2 life.', 'Whenever you gain life, you may pay {1}. If you do, draw a card and each opponent loses 1 life.', 'At the beginning of your upkeep, if Oloro, Ageless Ascetic is in the command zone, you gain 2 life.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Counter target spell.</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>('Riku of Two Reflections', ['{2}{G}{U}{R}', 'Legendary Creature — Human Wizard', 'Whenever you cast an instant or sorcery spell, you may pay {U}{R}. If you do, copy that spell. You may choose new targets for the copy.', 'Whenever another nontoken creature enters the battlefield under your control, you may pay {G}{U}. If you do, create a token that’s a copy of that creature.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Basic Land — Forest</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Greater Good</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sacrifice a creature: Draw cards equal to the sacrificed creature’s power, then discard three cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Hanna, Ship's Navigator</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Artificer</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{1}{W}{U}, {T}: Return target artifact or enchantment card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Karador, Ghost Chieftain</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{5}{W}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Centaur Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>This spell costs {1} less to cast for each creature card in your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>During each of your turns, you may cast a creature spell from your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Nekusar, the Mindrazer</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{2}{U}{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Zombie Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>At the beginning of each player’s draw step, that player draws an additional card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Whenever an opponent draws a card, Nekusar, the Mindrazer deals 1 damage to that player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Oloro, Ageless Ascetic</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{3}{W}{U}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Giant Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, you gain 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Whenever you gain life, you may pay {1}. If you do, draw a card and each opponent loses 1 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, if Oloro, Ageless Ascetic is in the command zone, you gain 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Riku of Two Reflections</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{2}{G}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Whenever you cast an instant or sorcery spell, you may pay {U}{R}. If you do, copy that spell. You may choose new targets for the copy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Whenever another nontoken creature enters the battlefield under your control, you may pay {G}{U}. If you do, create a token that’s a copy of that creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Sword of Feast and Famine</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Equipped creature gets +2/+2 and has protection from black and from green.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals combat damage to a player, that player discards a card and you untap all lands you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
+          <t>('Sword of Feast and Famine', ['{3}', 'Artifact — Equipment', 'Equipped creature gets +2/+2 and has protection from black and from green.', 'Whenever equipped creature deals combat damage to a player, that player discards a card and you untap all lands you control.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
